--- a/Stocks/RAJESHEXPO.xlsx
+++ b/Stocks/RAJESHEXPO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>618.83333333333337</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>720.35733509374506</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>701.22643876589871</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>80.66398285375962</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>6.3999999999999773</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>9.7999999999999545</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.65306122448979664</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>689.36574628340406</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>14.125507358730033</v>
       </c>
       <c r="Y67">
         <v>10.05188761525875</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>723.7</v>
+      </c>
+      <c r="D83">
+        <v>775</v>
+      </c>
+      <c r="E83">
+        <v>719.5</v>
+      </c>
+      <c r="F83">
+        <v>740.15</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>744.88333333333333</v>
+      </c>
+      <c r="H83">
+        <v>732.9918417460392</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>737.89502059820495</v>
+      </c>
+      <c r="K83">
+        <v>716.23537070345537</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>86.19360529823382</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>20.649999999999977</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>55.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.37207207207207166</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>721.29614527207309</v>
+      </c>
+      <c r="W83">
+        <v>712.58106830499389</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>8.7150769670791988</v>
+      </c>
+      <c r="Y83">
+        <v>9.4226550211703604</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>739.95</v>
+      </c>
+      <c r="D84">
+        <v>747</v>
+      </c>
+      <c r="E84">
+        <v>729.05</v>
+      </c>
+      <c r="F84">
+        <v>730.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>735.51666666666677</v>
+      </c>
+      <c r="H84">
+        <v>734.25425420635293</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>739.91834935415943</v>
+      </c>
+      <c r="K84">
+        <v>719.08306610268755</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>61.409868462557604</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.4500000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>17.950000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>8.0779944289695926E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>722.71212292252335</v>
+      </c>
+      <c r="W84">
+        <v>713.9083965786981</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>8.8037263438252467</v>
+      </c>
+      <c r="Y84">
+        <v>9.298869285701338</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>733</v>
+      </c>
+      <c r="D85">
+        <v>743.95</v>
+      </c>
+      <c r="E85">
+        <v>731</v>
+      </c>
+      <c r="F85">
+        <v>738.9</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>737.94999999999993</v>
+      </c>
+      <c r="H85">
+        <v>736.10212710317637</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>740.81427171990174</v>
+      </c>
+      <c r="K85">
+        <v>721.73127363542369</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>70.606116824317795</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>12.950000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.61003861003860615</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>725.20256554982745</v>
+      </c>
+      <c r="W85">
+        <v>715.75962646175753</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>9.4429390880699202</v>
+      </c>
+      <c r="Y85">
+        <v>9.3276832461750541</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>739.55</v>
+      </c>
+      <c r="D86">
+        <v>759</v>
+      </c>
+      <c r="E86">
+        <v>738.5</v>
+      </c>
+      <c r="F86">
+        <v>741.15</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>746.2166666666667</v>
+      </c>
+      <c r="H86">
+        <v>741.15939688492153</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>744.85554467103464</v>
+      </c>
+      <c r="K86">
+        <v>725.45765727199625</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>72.778144719946127</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.6499999999999773</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>20.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.12926829268292572</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>727.65601700370019</v>
+      </c>
+      <c r="W86">
+        <v>717.64039487199773</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>10.015622131702457</v>
+      </c>
+      <c r="Y86">
+        <v>9.4652710232805344</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>743.5</v>
+      </c>
+      <c r="D87">
+        <v>755</v>
+      </c>
+      <c r="E87">
+        <v>739.5</v>
+      </c>
+      <c r="F87">
+        <v>741.1</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>745.19999999999993</v>
+      </c>
+      <c r="H87">
+        <v>743.17969844246068</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>747.10986807747133</v>
+      </c>
+      <c r="K87">
+        <v>728.57817787821932</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>72.629065747089101</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>15.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.10322580645161437</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>729.72432208005398</v>
+      </c>
+      <c r="W87">
+        <v>719.37814339999795</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>10.346178680056028</v>
+      </c>
+      <c r="Y87">
+        <v>9.6414525546356327</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>749</v>
+      </c>
+      <c r="D88">
+        <v>755.65</v>
+      </c>
+      <c r="E88">
+        <v>739</v>
+      </c>
+      <c r="F88">
+        <v>740.1</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>744.91666666666663</v>
+      </c>
+      <c r="H88">
+        <v>744.04818255456371</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>749.0076751713666</v>
+      </c>
+      <c r="K88">
+        <v>730.89413834972618</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>69.090914752482064</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>16.649999999999977</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>6.6066066066067519E-2</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>731.32058022158412</v>
+      </c>
+      <c r="W88">
+        <v>720.91309574073887</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>10.407484480845255</v>
+      </c>
+      <c r="Y88">
+        <v>9.7946589398775572</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>743.9</v>
+      </c>
+      <c r="D89">
+        <v>762</v>
+      </c>
+      <c r="E89">
+        <v>741.15</v>
+      </c>
+      <c r="F89">
+        <v>757.45</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>753.53333333333342</v>
+      </c>
+      <c r="H89">
+        <v>748.79075794394862</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>751.89485846661842</v>
+      </c>
+      <c r="K89">
+        <v>733.17321871645368</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>84.970158195291816</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>16.300000000000068</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>20.850000000000023</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.78177458033573388</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>735.34049095672503</v>
+      </c>
+      <c r="W89">
+        <v>723.61953309327669</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>11.720957863448348</v>
+      </c>
+      <c r="Y89">
+        <v>10.179918724591715</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>758.55</v>
+      </c>
+      <c r="D90">
+        <v>775</v>
+      </c>
+      <c r="E90">
+        <v>748.65</v>
+      </c>
+      <c r="F90">
+        <v>751</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>758.2166666666667</v>
+      </c>
+      <c r="H90">
+        <v>753.50371230530766</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>757.0293343629254</v>
+      </c>
+      <c r="K90">
+        <v>736.61250344613063</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>68.594365061143392</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.3500000000000227</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>26.350000000000023</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>8.9184060721063399E-2</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>737.74964619415198</v>
+      </c>
+      <c r="W90">
+        <v>725.64771582710807</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>12.101930367043906</v>
+      </c>
+      <c r="Y90">
+        <v>10.564321053082153</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>754.35</v>
+      </c>
+      <c r="D91">
+        <v>769.95</v>
+      </c>
+      <c r="E91">
+        <v>751.35</v>
+      </c>
+      <c r="F91">
+        <v>760</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>760.43333333333339</v>
+      </c>
+      <c r="H91">
+        <v>756.96852281932047</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>759.90059339338643</v>
+      </c>
+      <c r="K91">
+        <v>739.88750268032379</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>76.495367417435659</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>8.6499999999999773</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>18.600000000000023</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.46505376344085841</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>741.17277754889778</v>
+      </c>
+      <c r="W91">
+        <v>728.19232946954446</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>12.980448079353323</v>
+      </c>
+      <c r="Y91">
+        <v>11.047546458336388</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>762</v>
+      </c>
+      <c r="D92">
+        <v>769.4</v>
+      </c>
+      <c r="E92">
+        <v>748</v>
+      </c>
+      <c r="F92">
+        <v>749.4</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>755.6</v>
+      </c>
+      <c r="H92">
+        <v>756.2842614096603</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>762.01157263930054</v>
+      </c>
+      <c r="K92">
+        <v>741.69027986247409</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>55.820535743371138</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>21.399999999999977</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>6.5420560747662559E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>742.43850407983655</v>
+      </c>
+      <c r="W92">
+        <v>729.76326802735593</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>12.675236052480614</v>
+      </c>
+      <c r="Y92">
+        <v>11.373084377165233</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>754.7</v>
+      </c>
+      <c r="D93">
+        <v>754.7</v>
+      </c>
+      <c r="E93">
+        <v>747.5</v>
+      </c>
+      <c r="F93">
+        <v>748.4</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>750.19999999999993</v>
+      </c>
+      <c r="H93">
+        <v>753.24213070483006</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>760.38677871945595</v>
+      </c>
+      <c r="K93">
+        <v>742.98132878192428</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>54.096369588361149</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>7.2000000000000455</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.12499999999999606</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>743.35565729832319</v>
+      </c>
+      <c r="W93">
+        <v>731.14376669199623</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>12.211890606326961</v>
+      </c>
+      <c r="Y93">
+        <v>11.540845622997578</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>750</v>
+      </c>
+      <c r="D94">
+        <v>760</v>
+      </c>
+      <c r="E94">
+        <v>748.5</v>
+      </c>
+      <c r="F94">
+        <v>749.9</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>752.80000000000007</v>
+      </c>
+      <c r="H94">
+        <v>753.02106535241501</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>760.30082789291021</v>
+      </c>
+      <c r="K94">
+        <v>744.20770016371887</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>56.609314120336229</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>11.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.12173913043478063</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>744.36247925242731</v>
+      </c>
+      <c r="W94">
+        <v>732.53311730740393</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>11.829361945023379</v>
+      </c>
+      <c r="Y94">
+        <v>11.598548887402739</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>751</v>
+      </c>
+      <c r="D95">
+        <v>763.95</v>
+      </c>
+      <c r="E95">
+        <v>748.3</v>
+      </c>
+      <c r="F95">
+        <v>751</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>754.41666666666663</v>
+      </c>
+      <c r="H95">
+        <v>753.71886600954076</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>761.11175502781907</v>
+      </c>
+      <c r="K95">
+        <v>745.11710012733693</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>58.682695928632668</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.7000000000000455</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>15.650000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.17252396166134376</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>745.38363629051537</v>
+      </c>
+      <c r="W95">
+        <v>733.90103454389248</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>11.48260174662289</v>
+      </c>
+      <c r="Y95">
+        <v>11.575359459246769</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>752</v>
+      </c>
+      <c r="D96">
+        <v>759</v>
+      </c>
+      <c r="E96">
+        <v>749.95</v>
+      </c>
+      <c r="F96">
+        <v>754</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>754.31666666666661</v>
+      </c>
+      <c r="H96">
+        <v>754.01776633810368</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>760.64247613274813</v>
+      </c>
+      <c r="K96">
+        <v>746.19107787681764</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>64.470461334229739</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4.0499999999999545</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>9.0499999999999545</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.44751381215469338</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>746.70923070735921</v>
+      </c>
+      <c r="W96">
+        <v>735.3898467999004</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>11.319383907458814</v>
+      </c>
+      <c r="Y96">
+        <v>11.524164348889178</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>754</v>
+      </c>
+      <c r="D97">
+        <v>763</v>
+      </c>
+      <c r="E97">
+        <v>750.1</v>
+      </c>
+      <c r="F97">
+        <v>753.85</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>755.65</v>
+      </c>
+      <c r="H97">
+        <v>754.83388316905189</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>761.16637032547078</v>
+      </c>
+      <c r="K97">
+        <v>747.05972723752484</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>63.910917629704969</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.29069767441860517</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>747.80781059853473</v>
+      </c>
+      <c r="W97">
+        <v>736.75726555546328</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>11.050545043071452</v>
+      </c>
+      <c r="Y97">
+        <v>11.429440487725632</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>758</v>
+      </c>
+      <c r="D98">
+        <v>758.3</v>
+      </c>
+      <c r="E98">
+        <v>752.5</v>
+      </c>
+      <c r="F98">
+        <v>753.65</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>754.81666666666661</v>
+      </c>
+      <c r="H98">
+        <v>754.82527491785925</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>760.52939914203284</v>
+      </c>
+      <c r="K98">
+        <v>748.26867674029711</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>62.999620672788737</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.1499999999999773</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>5.7999999999999545</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.19827586206896314</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>748.70660896799097</v>
+      </c>
+      <c r="W98">
+        <v>738.00857921802151</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>10.698029749969464</v>
+      </c>
+      <c r="Y98">
+        <v>11.283158340174399</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>754.85</v>
+      </c>
+      <c r="D99">
+        <v>763.75</v>
+      </c>
+      <c r="E99">
+        <v>750.05</v>
+      </c>
+      <c r="F99">
+        <v>754.1</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>755.9666666666667</v>
+      </c>
+      <c r="H99">
+        <v>755.39597079226291</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>761.24508822158111</v>
+      </c>
+      <c r="K99">
+        <v>748.66452635356438</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>64.426237048248723</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>4.0500000000000682</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>13.700000000000045</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.2956204379562084</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>749.53636143445385</v>
+      </c>
+      <c r="W99">
+        <v>739.20053631298288</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>10.335825121470975</v>
+      </c>
+      <c r="Y99">
+        <v>11.093691696433714</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>759.9</v>
+      </c>
+      <c r="D100">
+        <v>759.9</v>
+      </c>
+      <c r="E100">
+        <v>754</v>
+      </c>
+      <c r="F100">
+        <v>754</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>755.9666666666667</v>
+      </c>
+      <c r="H100">
+        <v>755.68131872946481</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>760.94617972789638</v>
+      </c>
+      <c r="K100">
+        <v>749.85018716388345</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>63.743529609210455</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>750.22307505992251</v>
+      </c>
+      <c r="W100">
+        <v>740.29679288239151</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>9.9262821775309931</v>
+      </c>
+      <c r="Y100">
+        <v>10.860209792653169</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>755.5</v>
+      </c>
+      <c r="D101">
+        <v>760.65</v>
+      </c>
+      <c r="E101">
+        <v>730.6</v>
+      </c>
+      <c r="F101">
+        <v>731.6</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>740.94999999999993</v>
+      </c>
+      <c r="H101">
+        <v>748.31565936473237</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>760.88036201058605</v>
+      </c>
+      <c r="K101">
+        <v>745.57236779413154</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>16.068105231313741</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>30.049999999999955</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>3.327787021630621E-2</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>747.35798658916519</v>
+      </c>
+      <c r="W101">
+        <v>739.65258600221432</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>7.7054005869508728</v>
+      </c>
+      <c r="Y101">
+        <v>10.229247951512709</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>733.5</v>
+      </c>
+      <c r="D102">
+        <v>764.85</v>
+      </c>
+      <c r="E102">
+        <v>733</v>
+      </c>
+      <c r="F102">
+        <v>750.1</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>749.31666666666661</v>
+      </c>
+      <c r="H102">
+        <v>748.81616301569943</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>761.76250378601139</v>
+      </c>
+      <c r="K102">
+        <v>742.77850828432452</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>52.637929005530196</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>17.100000000000023</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>31.850000000000023</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.5368916797488229</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>747.77983480621674</v>
+      </c>
+      <c r="W102">
+        <v>740.42646852056885</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>7.3533662856478941</v>
+      </c>
+      <c r="Y102">
+        <v>9.6540716183397457</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>755.85</v>
+      </c>
+      <c r="D103">
+        <v>765</v>
+      </c>
+      <c r="E103">
+        <v>747.5</v>
+      </c>
+      <c r="F103">
+        <v>761</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>757.83333333333337</v>
+      </c>
+      <c r="H103">
+        <v>753.32474817451634</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>762.48194738912002</v>
+      </c>
+      <c r="K103">
+        <v>743.82772866558571</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>64.143907985886401</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>17.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>749.81370637449106</v>
+      </c>
+      <c r="W103">
+        <v>741.95043381534151</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>7.86327255914955</v>
+      </c>
+      <c r="Y103">
+        <v>9.2959118065017066</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>762</v>
+      </c>
+      <c r="D104">
+        <v>804.55</v>
+      </c>
+      <c r="E104">
+        <v>759.5</v>
+      </c>
+      <c r="F104">
+        <v>783</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>782.35</v>
+      </c>
+      <c r="H104">
+        <v>767.83737408725824</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>771.83040352487114</v>
+      </c>
+      <c r="K104">
+        <v>747.31045562878887</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N104">
+        <v>77.769362625429423</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>23.5</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>45.049999999999955</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.52164261931187617</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>754.91929000918469</v>
+      </c>
+      <c r="W104">
+        <v>744.99114242161249</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>9.9281475875721981</v>
+      </c>
+      <c r="Y104">
+        <v>9.4223589627158049</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
